--- a/对应表格.xlsx
+++ b/对应表格.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\code\提任务单\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\extract_and_put_cq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA7F2B1-29BF-45B3-BC90-0FC2ED68E17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C347C1CE-693D-4820-8FB1-3F0351625C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>DWG文件名</t>
   </si>
@@ -162,6 +162,22 @@
   </si>
   <si>
     <t xml:space="preserve">2702 0000 3102 3508 3709 3708 3110 3107 3825 3106 3104 3103 2913 2912 2910 2906 2903 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转坐标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>河堤路</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1203 1204 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">06AL 08AL 17AL 18AL 19AL 20AL 21AL 22AL 23AL 25AL </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -575,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -747,6 +763,22 @@
         <v>36</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/对应表格.xlsx
+++ b/对应表格.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\extract_and_put_cq\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\extract_and_put_cq_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C347C1CE-693D-4820-8FB1-3F0351625C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE7C7D9-73A4-4AA5-BBA7-9F18BEAAF40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>DWG文件名</t>
   </si>
@@ -178,6 +178,14 @@
   </si>
   <si>
     <t xml:space="preserve">06AL 08AL 17AL 18AL 19AL 20AL 21AL 22AL 23AL 25AL </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0617-线路任务单42&amp;43&amp;5部分成果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2610 2609 2608 2607 2606 2605 05AL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -591,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -603,7 +611,7 @@
     <col min="2" max="2" width="94.25" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,15 +619,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -627,7 +638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -635,7 +646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -643,7 +654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -651,7 +662,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -659,7 +670,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -667,7 +678,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -675,7 +686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -683,7 +694,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -691,7 +702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -699,7 +710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -707,7 +718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -715,7 +726,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -723,7 +734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -777,6 +788,14 @@
       </c>
       <c r="B22" s="3" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/对应表格.xlsx
+++ b/对应表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\extract_and_put_cq_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE7C7D9-73A4-4AA5-BBA7-9F18BEAAF40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B13C4D-8406-461C-82A8-B0E0485EAC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>DWG文件名</t>
   </si>
@@ -157,10 +157,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2603</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">2702 0000 3102 3508 3709 3708 3110 3107 3825 3106 3104 3103 2913 2912 2910 2906 2903 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -186,6 +182,14 @@
   </si>
   <si>
     <t>2610 2609 2608 2607 2606 2605 05AL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2603 11AL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>02AL 24AL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +606,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -691,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -763,7 +767,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
@@ -771,31 +775,31 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/对应表格.xlsx
+++ b/对应表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\extract_and_put_cq_main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B13C4D-8406-461C-82A8-B0E0485EAC48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B48180-D5E3-4B1F-9A61-76A8A9868FB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -173,10 +173,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">06AL 08AL 17AL 18AL 19AL 20AL 21AL 22AL 23AL 25AL </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0617-线路任务单42&amp;43&amp;5部分成果</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -190,6 +186,10 @@
   </si>
   <si>
     <t>02AL 24AL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">06AL 08AL 17AL 18AL 19AL 20AL 21AL 22AL 23AL 25AL 45AL 46AL </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,7 +695,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -775,7 +775,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
@@ -783,7 +783,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
@@ -796,10 +796,10 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
   </sheetData>
